--- a/Renovacao/Dados_Renovacao/Original/Maria Aparecida Silva de Almeida.xlsx
+++ b/Renovacao/Dados_Renovacao/Original/Maria Aparecida Silva de Almeida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,46 +504,14 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>271494</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MARCIA HELENA CAMILLO VERIDIANO</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>De: 17/10/2023a17/10/2024</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>53123089055030</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -566,7 +534,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>435591 - ABINADABI RAMOS TEODORO</t>
+          <t>528902 - ALEXANDRE JOAO FILHO</t>
         </is>
       </c>
     </row>
@@ -604,7 +572,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>528902 - ALEXANDRE JOAO FILHO</t>
+          <t>526637 - ALTH SILVEIRA CORRETORA DE SEGUR</t>
         </is>
       </c>
     </row>
@@ -642,7 +610,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>526637 - ALTH SILVEIRA CORRETORA DE SEGUR</t>
+          <t>526069 - ANA PAULA DE OLIVEIRA</t>
         </is>
       </c>
     </row>
@@ -680,7 +648,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>526069 - ANA PAULA DE OLIVEIRA</t>
+          <t>526881 - ANDERSON SILVA E SOUZA COR DE SE</t>
         </is>
       </c>
     </row>
@@ -718,7 +686,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>526881 - ANDERSON SILVA E SOUZA COR DE SE</t>
+          <t>486347 - ANOVAMAR CORR DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -726,14 +694,46 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>273674</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PEDRO PINTO DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>De: 23/11/2023a23/11/2024</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>53123090688670</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -756,7 +756,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>486347 - ANOVAMAR CORR DE SEGUROS LTDA</t>
+          <t>437840 - ARAMAR CORR DE SEGS SC LTDA</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>270224</t>
+          <t>273004</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -786,17 +786,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ERIC ALEXANDRE IKEDA</t>
+          <t>FULIAGRO INSUMOS AGRICOLAS LTDA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>53123088387250</t>
+          <t>53123090100044</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>437840 - ARAMAR CORR DE SEGS SC LTDA</t>
+          <t>510430 - AXII CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -834,46 +834,14 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>270409</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ANA RITA SULATO AFONSO</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>De: 09/10/2023a09/10/2024</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>53123088521119</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -896,7 +864,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>510430 - AXII CORRETORA DE SEGUROS LTDA</t>
+          <t>533472 - Artermar Corretagem de Seguros L</t>
         </is>
       </c>
     </row>
@@ -934,7 +902,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>533472 - Artermar Corretagem de Seguros L</t>
+          <t>531664 - B3M CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -972,7 +940,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>531664 - B3M CORRETORA DE SEGUROS LTDA</t>
+          <t>526300 - BLIX CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -1010,7 +978,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>526300 - BLIX CORRETORA DE SEGUROS LTDA</t>
+          <t>534308 - BWCOR CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1016,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>534308 - BWCOR CORRETORA DE SEGUROS LTDA</t>
+          <t>527838 - Bergamo corretora de seguros Ltd</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1054,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>527838 - Bergamo corretora de seguros Ltd</t>
+          <t>401998 - CAMPINAS CORRETORA DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1092,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>401998 - CAMPINAS CORRETORA DE SEGS LTDA</t>
+          <t>524260 - CL MACEDO CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1130,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>401980 - CAMPOS &amp; MACCAGNANI ADM.COR.SEGS</t>
+          <t>504957 - DIESEL CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1168,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>492849 - DEMAIS SEGUROS CORRETORA LTDA ME</t>
+          <t>405370 - DYNATECH CORR.DE SEGS.S/C LTDA.</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1206,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>504957 - DIESEL CORRETORA DE SEGUROS LTDA</t>
+          <t>528058 - E J L PLANOS DE SAUDE SEG em ger</t>
         </is>
       </c>
     </row>
@@ -1246,46 +1214,14 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>270468</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MARIA CAROLINA CAPOVILLA MONFERRARI</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>De: 04/10/2023a04/10/2024</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>53123088578765</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1308,7 +1244,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>405370 - DYNATECH CORR.DE SEGS.S/C LTDA.</t>
+          <t>511913 - E L M ALVES LTDA</t>
         </is>
       </c>
     </row>
@@ -1316,14 +1252,46 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>125773</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BRUNO CARDILLO ALMEIDA E SILVA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>De: 11/11/2023a11/11/2024</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>53123090458208</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1336,7 +1304,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1346,7 +1314,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>528058 - E J L PLANOS DE SAUDE SEG em ger</t>
+          <t>402656 - EMERSON CONS CORR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -1354,14 +1322,46 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>125783</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MANUELA EDNA DA SILVA OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>De: 14/11/2023a14/11/2024</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>53123090523387</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>511913 - E L M ALVES LTDA</t>
+          <t>402656 - EMERSON CONS CORR DE SEGS LTDA</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>125926</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1414,17 +1414,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BRUNO THEOZZO</t>
+          <t>MARIA NICOLAU SILVA SANTOS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>De: 24/10/2023a24/10/2024</t>
+          <t>De: 23/11/2023a23/11/2024</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>53123089057068</t>
+          <t>53123090759097</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>125147</t>
+          <t>125740</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>REINALDO QUINTINO</t>
+          <t>NATHALIA RODRIGUES MACIEL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>De: 30/10/2023a30/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>53123089332247</t>
+          <t>53123090374888</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>10018</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>RUBIN INDUSTRIA E COMERCIO DE MALHAS LTDA</t>
+          <t>ALINE ALVES MARCHETO QUIRINO</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>De: 04/10/2023a04/10/2024</t>
+          <t>De: 01/11/2023a01/11/2024</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>531038W1VJUDT2</t>
+          <t>531038W3B51Y97</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1875,12 +1875,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>124820</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1890,17 +1890,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SOCOFER-COMERCIO DE FERRAGENS DE SOCORRO</t>
+          <t>BAR LANCHONETE E RESTAURANTE BINI  TEIXEIRA LTDA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>De: 13/10/2023a13/10/2024</t>
+          <t>De: 09/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>53123088988505</t>
+          <t>531038W1VOCF56</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>125427</t>
+          <t>125913</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1960,17 +1960,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PAULO ROGERIO SALVARANI</t>
+          <t>PAULO SERGIO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>De: 18/10/2023a18/10/2024</t>
+          <t>De: 10/11/2023a09/11/2024</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>53123089790148</t>
+          <t>53123090758961</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2015,12 +2015,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>124775</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ALESSANDRO SANTOS PINTO</t>
+          <t>TANI E GUTTI MODA PLUS SIZE LIPE LTDA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>53123088915680</t>
+          <t>531038W1VOK4X2</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>124972</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2100,17 +2100,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GIANE MARIA DINI DE OLIVEIRA</t>
+          <t>MATHEUS ROGER JOSE RAMALHO 34727203871</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 13/11/2023a13/11/2024</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>53123089134712</t>
+          <t>531038W1VOZKH4</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2155,12 +2155,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>124859</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2170,17 +2170,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>LUIS FERNANDO OLIVEIRA CAMARGO</t>
+          <t>JANAINA NOGAROTTO PIEROTE OLIVEIRA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>De: 20/10/2023a20/10/2024</t>
+          <t>De: 16/11/2023a16/11/2024</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>53123088988890</t>
+          <t>531038W1VQPAP4</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>124738</t>
+          <t>125706</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2240,17 +2240,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>L C DE OLIVEIRA</t>
+          <t>MARIA HELENA GOMES DA SILVA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>53123088861971</t>
+          <t>53123090374543</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>125045</t>
+          <t>125532</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2310,17 +2310,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MARCIEL VESCO</t>
+          <t>L C DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 19/11/2023a19/11/2024</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>53123089194227</t>
+          <t>53123089975032</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>125084</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2380,17 +2380,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>GIANE GARBUIO DE SOUZA</t>
+          <t>BASSI KIDS MALHAS LTDA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>53123089260599</t>
+          <t>531038W1VQX0H6</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2440,27 +2440,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>125517</t>
+          <t>125868</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ALEXANDRE MOREIRA DE SOUZA</t>
+          <t>EDERSON RODRIGO DE SOUZA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>53123089974885</t>
+          <t>00000000000000</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2505,12 +2505,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9983</t>
+          <t>125868</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>JANICE DE CAMPOS PERRE</t>
+          <t>EDERSON RODRIGO DE SOUZA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>531038W3AXJW12</t>
+          <t>53123090597267</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2580,32 +2580,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>125299</t>
+          <t>125868</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ILIETE RAMALHO DE OLIVEIRA</t>
+          <t>EDERSON RODRIGO DE SOUZA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>De: 27/10/2023a27/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>53123089600403</t>
+          <t>53123090597275</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2650,32 +2650,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>125146</t>
+          <t>125868</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>REGINALDO DE LIMA</t>
+          <t>EDERSON RODRIGO DE SOUZA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>De: 28/10/2023a28/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>53123089332239</t>
+          <t>53123090597283</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2715,12 +2715,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>269901</t>
+          <t>10158</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2730,17 +2730,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>GUARNIERI POLETINE GUARNIERI LTDA EPP</t>
+          <t>ADRIANO DE OLIVEIRA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 22/11/2023a22/11/2024</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>53123088135936</t>
+          <t>531038W3BZ2755</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>403736 - GUARNIERI - ADM E COR DE SEGS S</t>
+          <t>403545 - GASPERE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>269909</t>
+          <t>126006</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2800,22 +2800,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>GUARNIERI POLETINE GUARNIERI LTDA EPP</t>
+          <t>JK ESTRUTURA METALICAS EIRELI</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 28/11/2023a28/11/2024</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>53123088136010</t>
+          <t>53123090897171</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>403736 - GUARNIERI - ADM E COR DE SEGS S</t>
+          <t>403545 - GASPERE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>269968</t>
+          <t>10228</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2870,17 +2870,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>GUARNIERI POLETINE GUARNIERI LTDA EPP</t>
+          <t>RENATA APARECIDA DE OLIVEIRA BORGES</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>De: 05/10/2023a05/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>53123088191941</t>
+          <t>531038W3CE2BL3</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>403736 - GUARNIERI - ADM E COR DE SEGS S</t>
+          <t>403545 - GASPERE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -2925,12 +2925,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>271224</t>
+          <t>10229</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2940,17 +2940,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ORYON SERVICOS SUPORTE LOCACAO EQUIP. IN</t>
+          <t>RENATA APARECIDA DE OLIVEIRA BORGES</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>De: 19/10/2023a19/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>53123088914897</t>
+          <t>531038W3CEA1D0</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>443199 - H T GOLD CORRET DE SGS S/S LTDA</t>
+          <t>403545 - GASPERE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>927</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>272145</t>
+          <t>10240</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3010,22 +3010,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ARLINDO BAUMGARTNER</t>
+          <t>ANA CLAUDIA DOS SANTOS RAMALHO CAYRES</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>De: 29/10/2023a29/10/2024</t>
+          <t>De: 29/11/2023a29/11/2024</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>53123089399562</t>
+          <t>531038W3CGMWX7</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>443199 - H T GOLD CORRET DE SGS S/S LTDA</t>
+          <t>403545 - GASPERE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -3058,14 +3058,46 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1393</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO FILHO SOCORRO ME</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>De: 30/11/2023a30/11/2024</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>531038W1VSF0X3</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3078,7 +3110,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3088,7 +3120,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>485460 - HERITA ADM E CORRETORA DE SEGURO</t>
+          <t>403545 - GASPERE CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -3096,14 +3128,46 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>274143</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ANTONIO RODRIGO LANZA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>De: 19/11/2023a19/11/2024</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>53123091094820</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3126,7 +3190,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>521424 - HOPEFUL CORRETORA DE SEGUROS DE</t>
+          <t>403736 - GUARNIERI - ADM E COR DE SEGS S</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3228,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>525365 - J BRAGA CORRETORA DE SEGUROS E S</t>
+          <t>443199 - H T GOLD CORRET DE SGS S/S LTDA</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3266,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>512395 - JHZS CONSULTORIA E CORR DE SEGS</t>
+          <t>485460 - HERITA ADM E CORRETORA DE SEGURO</t>
         </is>
       </c>
     </row>
@@ -3210,14 +3274,46 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>272346</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PAULO VICTOR CUOCO</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>De: 06/11/2023a06/11/2024</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>53123089512911</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3240,7 +3336,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>532549 - JUNDISEG CORRETORA DE SEGUROS LT</t>
+          <t>521424 - HOPEFUL CORRETORA DE SEGUROS DE</t>
         </is>
       </c>
     </row>
@@ -3248,14 +3344,46 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>43967</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LEILA VIEIRA DE GODOI MONTEIRO</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>De: 27/11/2023a27/11/2024</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>5310389A0JZ750</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3278,7 +3406,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>534097 - LANEK CORRETORA DE SEGUROS LTDA</t>
+          <t>525365 - J BRAGA CORRETORA DE SEGUROS E S</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3444,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>527477 - LETS CORRETORA DE SEGUROS LTDA</t>
+          <t>512395 - JHZS CONSULTORIA E CORR DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3482,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>531648 - LRB Corretora de Seguros Ltda</t>
+          <t>532549 - JUNDISEG CORRETORA DE SEGUROS LT</t>
         </is>
       </c>
     </row>
@@ -3362,46 +3490,14 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>270566</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ADRIANA CASSIA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>De: 04/10/2023a04/10/2024</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>53123088657096</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3424,7 +3520,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>404161 - M F C ASSESSORIA E CORR. DE SEGS</t>
+          <t>534097 - LANEK CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3432,46 +3528,14 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>270854</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>VANESSA SANTANA DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>De: 13/10/2023a13/10/2024</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>53123088798269</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3494,7 +3558,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>404161 - M F C ASSESSORIA E CORR. DE SEGS</t>
+          <t>527477 - LETS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3532,7 +3596,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>517639 - MAC BENEFICIOS E C DE S LTDA- ME</t>
+          <t>531648 - LRB Corretora de Seguros Ltda</t>
         </is>
       </c>
     </row>
@@ -3540,14 +3604,46 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>272456</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>RICARDO PEREIRA MATUO</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>De: 01/11/2023a01/11/2024</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>53123089599308</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3570,7 +3666,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>534350 - MAPE CORRETORA DE SEGUROS LTDA</t>
+          <t>404161 - M F C ASSESSORIA E CORR. DE SEGS</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3704,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>534398 - MARTINSSEG CORRETORA DE SEGUROS</t>
+          <t>517639 - MAC BENEFICIOS E C DE S LTDA- ME</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3742,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>414485 - MARUMOTO COR DE SEG LTDA</t>
+          <t>534350 - MAPE CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3684,7 +3780,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>485851 - MBROKER CORA DE SEG E SERV ADM L</t>
+          <t>534398 - MARTINSSEG CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3818,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>504946 - MC CORRETORA DE SEGUROS E SAUDE</t>
+          <t>414485 - MARUMOTO COR DE SEG LTDA</t>
         </is>
       </c>
     </row>
@@ -3760,7 +3856,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>414478 - MD3 ADM E CORR DE SEGUROS LTDA</t>
+          <t>485851 - MBROKER CORA DE SEG E SERV ADM L</t>
         </is>
       </c>
     </row>
@@ -3768,46 +3864,14 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>926</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>5276</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>BEGHINI &amp; CAZISSI SOCIEDADE DE ADVOGADOS</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>De: 09/10/2023a09/10/2024</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>53103893M75J50</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3845,12 +3909,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>42542</t>
+          <t>272835</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3860,17 +3924,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>JOAO ALFREDO REVERS</t>
+          <t>PAULO SERGIO ALVES PEREIRA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>De: 16/10/2023a16/10/2024</t>
+          <t>De: 08/11/2023a08/11/2024</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>53103899S2JTT1</t>
+          <t>53123089909307</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3900,7 +3964,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>404100 - MENDES RANUCCI ADM E COR DE SEGS</t>
+          <t>402951 - MOGI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3908,14 +3972,46 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>273460</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ERIKA APARECIDA DA SILVA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>De: 24/11/2023a24/11/2024</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>53123090457520</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -3938,7 +4034,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>505920 - MILENA LEMES DUARTE</t>
+          <t>402951 - MOGI CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -3976,7 +4072,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>405365 - MINERAL COR DE SEGS LTDA</t>
+          <t>528485 - MVC Corretora de Seguros LTDA</t>
         </is>
       </c>
     </row>
@@ -3984,46 +4080,14 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>271199</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>MARIA DE LOURDES BONATTI</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>De: 20/10/2023a20/10/2024</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>53123088914641</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4046,7 +4110,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>402951 - MOGI CORRETORA DE SEGUROS LTDA</t>
+          <t>525558 - Marcos Aparecido Barbosa</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4148,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>528485 - MVC Corretora de Seguros LTDA</t>
+          <t>525567 - Metaplus Corretora de Seguros Lt</t>
         </is>
       </c>
     </row>
@@ -4092,14 +4156,46 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>125420</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>IGREJA DO EVANGELHO QUADRANGULAR</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>De: 01/11/2023a01/11/2024</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>53123089790075</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4112,7 +4208,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -4122,7 +4218,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>525558 - Marcos Aparecido Barbosa</t>
+          <t>404800 - NUNES E JUDAR ADM. COR. S. SC. L</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4256,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>525567 - Metaplus Corretora de Seguros Lt</t>
+          <t>493089 - PADME CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4168,46 +4264,14 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>9795</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>JULIANO PIRES DE CAMARGO</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>De: 03/10/2023a03/10/2024</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>531038W39T99T4</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4220,7 +4284,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -4230,7 +4294,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>404800 - NUNES E JUDAR ADM. COR. S. SC. L</t>
+          <t>488169 - PARAMITAS CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -4238,46 +4302,14 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>124849</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>IVO EDGAR NUNES EINHARDT</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>De: 19/10/2023a19/10/2024</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>53123088988793</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4290,7 +4322,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -4300,7 +4332,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>404800 - NUNES E JUDAR ADM. COR. S. SC. L</t>
+          <t>400438 - PAULO FIRMINO DOS SANTOS JUNIOR</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4352,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>125225</t>
+          <t>273007</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4330,17 +4362,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>RONALDO BONINI</t>
+          <t>LETICIA NUNES DE MENEZES</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>De: 25/10/2023a25/10/2024</t>
+          <t>De: 17/11/2023a17/11/2024</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>53123089513497</t>
+          <t>53123090100079</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4360,7 +4392,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -4370,7 +4402,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>404800 - NUNES E JUDAR ADM. COR. S. SC. L</t>
+          <t>486172 - PEPI CORRETORA DE SEGUROS EIRELI</t>
         </is>
       </c>
     </row>
@@ -4378,46 +4410,14 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>10029</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>EDUARDO FERNANDES FREITAS</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>531038W3B7ETT0</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>404800 - NUNES E JUDAR ADM. COR. S. SC. L</t>
+          <t>511954 - PLANEJA FUTURO CONS CORR DE SEG</t>
         </is>
       </c>
     </row>
@@ -4448,46 +4448,14 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>43115</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>AMANDA FREITAS ZORDAN</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>53103899VHD4H6</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4510,7 +4478,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>493089 - PADME CORRETORA DE SEGUROS LTDA</t>
+          <t>531856 - POS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -4548,7 +4516,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>488169 - PARAMITAS CORRETORA DE SEGUROS L</t>
+          <t>527660 - PRIME CONNECT COR SEG E PLAN SAU</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4554,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>400438 - PAULO FIRMINO DOS SANTOS JUNIOR</t>
+          <t>523907 - PRIME CORRETORA DE SEGUROS E CON</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4592,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>486172 - PEPI CORRETORA DE SEGUROS EIRELI</t>
+          <t>527031 - PRIME SEGUROS E CONSORCIO LTDA</t>
         </is>
       </c>
     </row>
@@ -4639,12 +4607,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>270482</t>
+          <t>5405</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4654,17 +4622,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>JONATHA LEONEL ERNESTO DA SILVA</t>
+          <t>CLNICA LUDENS</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 10/11/2023a10/11/2024</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>53123088578900</t>
+          <t>53103893MYSWH6</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4694,7 +4662,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>511954 - PLANEJA FUTURO CONS CORR DE SEG</t>
+          <t>512275 - PROSP SEG CORRETAGEM DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -4702,46 +4670,14 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>43160</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>ANGELINA VINCI FERNANDES</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>De: 24/10/2023a24/10/2024</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>53103899VR0CH2</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4764,7 +4700,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>511954 - PLANEJA FUTURO CONS CORR DE SEG</t>
+          <t>495201 - RD SEGUROS EIRELI</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4738,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>531856 - POS CORRETORA DE SEGUROS LTDA</t>
+          <t>502954 - RODRIGO ALVES</t>
         </is>
       </c>
     </row>
@@ -4840,7 +4776,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>527660 - PRIME CONNECT COR SEG E PLAN SAU</t>
+          <t>527837 - RONALDO MANDETTA SEGUROS</t>
         </is>
       </c>
     </row>
@@ -4848,46 +4784,14 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>917</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>3704</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>LUIS RENATO FAGUNDES</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>53103893CU7WH0</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -4910,7 +4814,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>523907 - PRIME CORRETORA DE SEGUROS E CON</t>
+          <t>400681 - ROSANA PANTAROTO MESIANO</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4829,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>917</t>
+          <t>990</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>273626</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4940,17 +4844,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>COPAVE NUTRI AMBIENTAL LTDA</t>
+          <t>JAIME ROMERO DE SOUZA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>De: 06/10/2023a06/10/2024</t>
+          <t>De: 21/11/2023a21/11/2024</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>53103893CUNC13</t>
+          <t>53123090630418</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4980,7 +4884,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>523907 - PRIME CORRETORA DE SEGUROS E CON</t>
+          <t>404493 - RR FENIX CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -4988,46 +4892,14 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>917</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>3703</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>DENISE APARECIDA DELL ORTI FAGUNDES</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>De: 13/10/2023a13/10/2024</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>53103893CU06P1</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5050,7 +4922,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>523907 - PRIME CORRETORA DE SEGUROS E CON</t>
+          <t>493851 - SERGIO METANOIA CORR DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -5058,46 +4930,14 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>917</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>3735</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>CERAMICA GLOBO LTDA EPP</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>De: 26/10/2023a26/10/2024</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>53103893D0V3L1</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5120,7 +4960,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>523907 - PRIME CORRETORA DE SEGUROS E CON</t>
+          <t>400534 - SERGIO ROBERTO DE OLIVEIRA</t>
         </is>
       </c>
     </row>
@@ -5148,7 +4988,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>911 - CAMPINAS MERCADO</t>
+          <t>916 - JUNDIAI MERCADO</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -5158,7 +4998,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>527031 - PRIME SEGUROS E CONSORCIO LTDA</t>
+          <t>486249 - SORAIA CRUZ MACHADO GUEDES</t>
         </is>
       </c>
     </row>
@@ -5166,46 +5006,14 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>42717</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>THIAGO MULLER CHAGAS</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>De: 18/10/2023a18/10/2024</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>53103899T424X4</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5228,7 +5036,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>512275 - PROSP SEG CORRETAGEM DE SEGUROS</t>
+          <t>527223 - STANLEY CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5074,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>495201 - RD SEGUROS EIRELI</t>
+          <t>490604 - TARGET CONSULTING CORRETORA DE S</t>
         </is>
       </c>
     </row>
@@ -5304,7 +5112,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>502954 - RODRIGO ALVES</t>
+          <t>534349 - TF COLETTI SERV INFORMACOES CADA</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5150,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>527837 - RONALDO MANDETTA SEGUROS</t>
+          <t>440456 - V. ANTUNES CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5188,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>400681 - ROSANA PANTAROTO MESIANO</t>
+          <t>485441 - VALDICEA PERIGO ZAMENGO</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5226,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>404493 - RR FENIX CORRETORA DE SEGUROS</t>
+          <t>532408 - VEIKI ADM E CORRETORA DE SEGUROS</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5264,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>493851 - SERGIO METANOIA CORR DE SEGUROS</t>
+          <t>527689 - VIP CLASS CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -5464,14 +5272,46 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>273187</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>MICHELLE FERRARESI RIBEIRO</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>De: 16/11/2023a16/11/2024</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>53123090225521</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5494,7 +5334,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>400534 - SERGIO ROBERTO DE OLIVEIRA</t>
+          <t>493464 - WS BROKER CORRETORA DE SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -5522,7 +5362,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>916 - JUNDIAI MERCADO</t>
+          <t>911 - CAMPINAS MERCADO</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -5532,7 +5372,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>486249 - SORAIA CRUZ MACHADO GUEDES</t>
+          <t>490261 - WS3 GESTAO DE RISCOS E SEGUROS L</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5410,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>527223 - STANLEY CORRETORA DE SEGUROS LTD</t>
+          <t>491657 - ZAIDEN CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
     </row>
@@ -5578,46 +5418,14 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>42395</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>EDUARDO BARRETO CORREIA</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>De: 02/10/2023a02/10/2024</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>53103899R71KH1</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5640,7 +5448,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>490604 - TARGET CONSULTING CORRETORA DE S</t>
+          <t>487851 - ZANCK CORRETORA DE SGRS LTDA ME</t>
         </is>
       </c>
     </row>
@@ -5648,46 +5456,14 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>927</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>42390</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>DIEGO DALLA VECCHIA SCUR</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>De: 05/10/2023a05/10/2024</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>53103899R5YZL7</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
           <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
@@ -5709,730 +5485,6 @@
         </is>
       </c>
       <c r="N102" t="inlineStr">
-        <is>
-          <t>490604 - TARGET CONSULTING CORRETORA DE S</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>272326</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>LAZARA CARMO DE CASTRO MIYASAKA</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>53123089512717</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>490604 - TARGET CONSULTING CORRETORA DE S</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>534349 - TF COLETTI SERV INFORMACOES CADA</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>440456 - V. ANTUNES CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>485441 - VALDICEA PERIGO ZAMENGO</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>532408 - VEIKI ADM E CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>527689 - VIP CLASS CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>270737</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>VALDETE OLIVEIRA SILVA</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>De: 11/10/2023a11/10/2024</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>53123088735747</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>493464 - WS BROKER CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>270834</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>ROBERTO APARECIDO DO PRADO</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>De: 14/10/2023a14/10/2024</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>53123088798064</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>493464 - WS BROKER CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>272142</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>LAURINDO DE FREITAS FILHO</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>De: 23/10/2023a23/10/2024</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>53123089399538</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>493464 - WS BROKER CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>271223</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>CAROLINA SILVA NOGUEIRA</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>De: 31/10/2023a31/10/2024</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>53123088914889</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>493464 - WS BROKER CORRETORA DE SEGUROS L</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>990</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>270382</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>LAERCIO DE SOUZA GABRIEL</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>De: 02/10/2023a02/10/2024</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>53123088520848</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>490261 - WS3 GESTAO DE RISCOS E SEGUROS L</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>491657 - ZAIDEN CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>487851 - ZANCK CORRETORA DE SGRS LTDA ME</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>531 - BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00 - SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>911 - CAMPINAS MERCADO</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>968.609.287-00 - Maria Aparecida Silva de Almeida</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
         <is>
           <t>527659 - celso prado corretora de seguros</t>
         </is>
